--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H2">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I2">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J2">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>21715.06070511875</v>
+        <v>17095.6184970334</v>
       </c>
       <c r="R2">
-        <v>195435.5463460687</v>
+        <v>153860.5664733006</v>
       </c>
       <c r="S2">
-        <v>0.05070834305044219</v>
+        <v>0.05371058105500143</v>
       </c>
       <c r="T2">
-        <v>0.05842078862636626</v>
+        <v>0.05719712671895472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H3">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I3">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J3">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>23238.24273153657</v>
+        <v>20739.05608032494</v>
       </c>
       <c r="R3">
-        <v>209144.1845838292</v>
+        <v>186651.5047229244</v>
       </c>
       <c r="S3">
-        <v>0.05426523095293172</v>
+        <v>0.06515744094311701</v>
       </c>
       <c r="T3">
-        <v>0.06251865859842028</v>
+        <v>0.06938704316920137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H4">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I4">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J4">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>11668.68084991177</v>
+        <v>11708.22490281918</v>
       </c>
       <c r="R4">
-        <v>105018.127649206</v>
+        <v>105374.0241253726</v>
       </c>
       <c r="S4">
-        <v>0.02724834526223425</v>
+        <v>0.03678460435708606</v>
       </c>
       <c r="T4">
-        <v>0.0313926609157732</v>
+        <v>0.03917242441604431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H5">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I5">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J5">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>26591.16416253338</v>
+        <v>12768.70165951107</v>
       </c>
       <c r="R5">
-        <v>159546.9849752003</v>
+        <v>76612.20995706646</v>
       </c>
       <c r="S5">
-        <v>0.06209487013529364</v>
+        <v>0.04011638336274936</v>
       </c>
       <c r="T5">
-        <v>0.04769276039838339</v>
+        <v>0.02848032073178349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H6">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I6">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J6">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>13331.54459588028</v>
+        <v>12595.84631577834</v>
       </c>
       <c r="R6">
-        <v>119983.9013629225</v>
+        <v>113362.6168420051</v>
       </c>
       <c r="S6">
-        <v>0.0311314136276309</v>
+        <v>0.03957331082331719</v>
       </c>
       <c r="T6">
-        <v>0.03586632151183933</v>
+        <v>0.04214215577991938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J7">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>61738.09571416325</v>
+        <v>54461.71301550234</v>
       </c>
       <c r="R7">
-        <v>555642.8614274693</v>
+        <v>490155.417139521</v>
       </c>
       <c r="S7">
-        <v>0.1441689055935662</v>
+        <v>0.1711064300961658</v>
       </c>
       <c r="T7">
-        <v>0.166096161962895</v>
+        <v>0.1822135596450978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J8">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>66068.6549980666</v>
+        <v>66068.65499806659</v>
       </c>
       <c r="R8">
-        <v>594617.8949825995</v>
+        <v>594617.8949825994</v>
       </c>
       <c r="S8">
-        <v>0.1542814946740418</v>
+        <v>0.207572826340525</v>
       </c>
       <c r="T8">
-        <v>0.1777468173303575</v>
+        <v>0.2210471199232175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J9">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>33175.23008351808</v>
+        <v>37299.02984726451</v>
       </c>
       <c r="R9">
-        <v>298577.0707516628</v>
+        <v>335691.2686253805</v>
       </c>
       <c r="S9">
-        <v>0.07746977872623845</v>
+        <v>0.117185146956342</v>
       </c>
       <c r="T9">
-        <v>0.08925248382489746</v>
+        <v>0.1247920534163927</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I10">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J10">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>75601.34694122817</v>
+        <v>40677.40313002037</v>
       </c>
       <c r="R10">
-        <v>453608.081647369</v>
+        <v>244064.4187801223</v>
       </c>
       <c r="S10">
-        <v>0.1765419442215799</v>
+        <v>0.1277992345407718</v>
       </c>
       <c r="T10">
-        <v>0.1355953016356971</v>
+        <v>0.09073009289210647</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I11">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J11">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>37902.91850688113</v>
+        <v>40126.73582744797</v>
       </c>
       <c r="R11">
-        <v>341126.2665619302</v>
+        <v>361140.6224470317</v>
       </c>
       <c r="S11">
-        <v>0.0885097315802955</v>
+        <v>0.1260691619613979</v>
       </c>
       <c r="T11">
-        <v>0.101971549630111</v>
+        <v>0.1342527615680495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H12">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I12">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J12">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>65.53883688919377</v>
+        <v>90.52729284376599</v>
       </c>
       <c r="R12">
-        <v>589.849532002744</v>
+        <v>814.7456355938939</v>
       </c>
       <c r="S12">
-        <v>0.0001530442796929791</v>
+        <v>0.0002844163550338172</v>
       </c>
       <c r="T12">
-        <v>0.0001763214291092883</v>
+        <v>0.0003028788365397442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H13">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I13">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J13">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>70.13599550355667</v>
+        <v>109.8205720613533</v>
       </c>
       <c r="R13">
-        <v>631.22395953201</v>
+        <v>988.3851485521799</v>
       </c>
       <c r="S13">
-        <v>0.0001637794233446594</v>
+        <v>0.0003450314908601589</v>
       </c>
       <c r="T13">
-        <v>0.0001886893259960911</v>
+        <v>0.0003674287173424781</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H14">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I14">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J14">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>35.21757462801644</v>
+        <v>61.99915520120622</v>
       </c>
       <c r="R14">
-        <v>316.958171652148</v>
+        <v>557.992396810856</v>
       </c>
       <c r="S14">
-        <v>8.223899900132658E-05</v>
+        <v>0.0001947873749846405</v>
       </c>
       <c r="T14">
-        <v>9.474707490878171E-05</v>
+        <v>0.0002074317192517428</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H15">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I15">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J15">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>80.25554219755151</v>
+        <v>67.61475138005834</v>
       </c>
       <c r="R15">
-        <v>481.533253185309</v>
+        <v>405.68850828035</v>
       </c>
       <c r="S15">
-        <v>0.0001874102780883949</v>
+        <v>0.0002124303127811719</v>
       </c>
       <c r="T15">
-        <v>0.0001439428646777047</v>
+        <v>0.0001508132821060523</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H16">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I16">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J16">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>40.23631057795989</v>
+        <v>66.69942174021999</v>
       </c>
       <c r="R16">
-        <v>362.126795201639</v>
+        <v>600.2947956619799</v>
       </c>
       <c r="S16">
-        <v>9.395859710354739E-05</v>
+        <v>0.0002095545533097545</v>
       </c>
       <c r="T16">
-        <v>0.0001082491560719294</v>
+        <v>0.0002231574878685077</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H17">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I17">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J17">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>12792.29722019012</v>
+        <v>955.80913932012</v>
       </c>
       <c r="R17">
-        <v>76753.78332114076</v>
+        <v>5734.85483592072</v>
       </c>
       <c r="S17">
-        <v>0.02987217971219904</v>
+        <v>0.003002936937290275</v>
       </c>
       <c r="T17">
-        <v>0.02294371026925767</v>
+        <v>0.002131912200010576</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H18">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I18">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J18">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>13689.60059258159</v>
+        <v>1159.5122660164</v>
       </c>
       <c r="R18">
-        <v>82137.60355548952</v>
+        <v>6957.0735960984</v>
       </c>
       <c r="S18">
-        <v>0.03196753499788881</v>
+        <v>0.003642926259669946</v>
       </c>
       <c r="T18">
-        <v>0.02455307473643752</v>
+        <v>0.002586267743516894</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H19">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I19">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J19">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>6873.995685603858</v>
+        <v>654.6021350015468</v>
       </c>
       <c r="R19">
-        <v>41243.97411362315</v>
+        <v>3927.61281000928</v>
       </c>
       <c r="S19">
-        <v>0.01605194367569482</v>
+        <v>0.002056612402580153</v>
       </c>
       <c r="T19">
-        <v>0.01232890095406008</v>
+        <v>0.001460076306400924</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H20">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I20">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J20">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>15664.79965298052</v>
+        <v>713.8929630145002</v>
       </c>
       <c r="R20">
-        <v>62659.19861192207</v>
+        <v>2855.571852058001</v>
       </c>
       <c r="S20">
-        <v>0.03657995920004682</v>
+        <v>0.002242890823823613</v>
       </c>
       <c r="T20">
-        <v>0.01873047081784483</v>
+        <v>0.00106154883490296</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H21">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I21">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J21">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>7853.585269255984</v>
+        <v>704.2286904204001</v>
       </c>
       <c r="R21">
-        <v>47121.5116155359</v>
+        <v>4225.3721425224</v>
       </c>
       <c r="S21">
-        <v>0.01833945119552241</v>
+        <v>0.002212527857043961</v>
       </c>
       <c r="T21">
-        <v>0.01408585040600246</v>
+        <v>0.001570767295417007</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H22">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I22">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J22">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>8.518672594235555</v>
+        <v>37.829163490097</v>
       </c>
       <c r="R22">
-        <v>76.66805334812001</v>
+        <v>340.462471410873</v>
       </c>
       <c r="S22">
-        <v>1.989254269692518E-05</v>
+        <v>0.0001188507074037911</v>
       </c>
       <c r="T22">
-        <v>2.291808334147289E-05</v>
+        <v>0.0001265657313416653</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H23">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I23">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J23">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>9.116206681783334</v>
+        <v>45.89135767325666</v>
       </c>
       <c r="R23">
-        <v>82.04586013605001</v>
+        <v>413.02221905931</v>
       </c>
       <c r="S23">
-        <v>2.128788595233516E-05</v>
+        <v>0.000144180304822621</v>
       </c>
       <c r="T23">
-        <v>2.452565023247627E-05</v>
+        <v>0.0001535395634031975</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H24">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I24">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J24">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>4.577545193948889</v>
+        <v>25.90794560047244</v>
       </c>
       <c r="R24">
-        <v>41.19790674554</v>
+        <v>233.171510404252</v>
       </c>
       <c r="S24">
-        <v>1.068934299451197E-05</v>
+        <v>8.139692707720489E-05</v>
       </c>
       <c r="T24">
-        <v>1.2315130214685E-05</v>
+        <v>8.668069235372529E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H25">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I25">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J25">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>10.4315352591575</v>
+        <v>28.25456725755417</v>
       </c>
       <c r="R25">
-        <v>62.58921155494501</v>
+        <v>169.527403545325</v>
       </c>
       <c r="S25">
-        <v>2.435940086225282E-05</v>
+        <v>8.876948354481564E-05</v>
       </c>
       <c r="T25">
-        <v>1.870954985879372E-05</v>
+        <v>6.302121853035006E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H26">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I26">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J26">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>5.229875482732779</v>
+        <v>27.87207316648999</v>
       </c>
       <c r="R26">
-        <v>47.06887934459501</v>
+        <v>250.84865849841</v>
       </c>
       <c r="S26">
-        <v>1.221264465666436E-05</v>
+        <v>8.756777330047869E-05</v>
       </c>
       <c r="T26">
-        <v>1.407011724571995E-05</v>
+        <v>9.325211024686517E-05</v>
       </c>
     </row>
   </sheetData>
